--- a/biology/Médecine/Gustave-Antoine_Richelot/Gustave-Antoine_Richelot.xlsx
+++ b/biology/Médecine/Gustave-Antoine_Richelot/Gustave-Antoine_Richelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustave-Antoine Richelot, né le 30 mars 1807 à Nantes et mort le 22 septembre 1893 à Paris[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustave-Antoine Richelot, né le 30 mars 1807 à Nantes et mort le 22 septembre 1893 à Paris, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave-Antoine Richelot est le fils d'Antoine Guy Marie Richelot et d'Anne Marie Louise Josèphe Maillet. Marié à Marie Clémence Angélique Bonnal, il est le père du chirurgien Louis-Gustave Richelot (1844-1924).
 En 1831, il obtient son doctorat en médecine à Paris avec la thèse sur la Phlébite utérine. Durant sa carrière, il travaille comme médecin au dispensaire du bureau de bienfaisance.
@@ -523,8 +537,8 @@
 Le Sang, de John Huster, 1892 ;
 Traité de la maladie vénérienne, par John Hunter, avec des notes et des additions par Philippe Ricord, Paris, J.-B. Baillière et fils, 1852.
 Parmi les œuvres originales Gustave-Antoine  Richelot, il publie un traité sur la prostitution en Angleterre et en Écosse intitulé De la prostitution en Angleterre et en Écosse (1857). 
-En 1875, il s'oppose violemment à l'accès aux études de médecine pour les femmes. Il estime que les femmes n'ont rien à faire dans les écoles de médecine. Il publie un pamphlet La femme médecin en juin 1875. Il consacre quatre pages à Franceline Ribard qu'il a rencontrée au cours de son externat. Il écrit que ses enfants seront « abandonnées, livrés à quelque servante inepte, contractant peut être le germe de quelque maladie »[2].  
-Gustave-Antoine Richelot est membre fondateur avec Louis-Rémy Aubert-Roche de la revue médicale L'Union. Il est chevalier de la Légion d'honneur[1]. 
+En 1875, il s'oppose violemment à l'accès aux études de médecine pour les femmes. Il estime que les femmes n'ont rien à faire dans les écoles de médecine. Il publie un pamphlet La femme médecin en juin 1875. Il consacre quatre pages à Franceline Ribard qu'il a rencontrée au cours de son externat. Il écrit que ses enfants seront « abandonnées, livrés à quelque servante inepte, contractant peut être le germe de quelque maladie ».  
+Gustave-Antoine Richelot est membre fondateur avec Louis-Rémy Aubert-Roche de la revue médicale L'Union. Il est chevalier de la Légion d'honneur. 
 </t>
         </is>
       </c>
